--- a/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_all.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_all.xlsx
@@ -2570,16 +2570,16 @@
         <v>143671</v>
       </c>
       <c r="G65" t="n">
-        <v>956084</v>
+        <v>955004</v>
       </c>
       <c r="H65" t="n">
-        <v>146487</v>
+        <v>146199</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1320901</v>
+        <v>1319533</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -5702,16 +5702,16 @@
         <v>21698628.43</v>
       </c>
       <c r="G167" t="n">
-        <v>51548175.9</v>
+        <v>51547095.9</v>
       </c>
       <c r="H167" t="n">
-        <v>3994811.41</v>
+        <v>3994523.41</v>
       </c>
       <c r="I167" t="n">
         <v>229261982.53</v>
       </c>
       <c r="J167" t="n">
-        <v>639880457.5</v>
+        <v>639879089.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_all.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_all.xlsx
@@ -4191,10 +4191,10 @@
         <v>11192941.91</v>
       </c>
       <c r="D118" t="n">
-        <v>22397512.52</v>
+        <v>22398112.36</v>
       </c>
       <c r="E118" t="n">
-        <v>688090.28</v>
+        <v>684598.28</v>
       </c>
       <c r="F118" t="n">
         <v>323597.95</v>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>39966262.41</v>
+        <v>39963370.25</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4227,10 +4227,10 @@
         <v>379653.31</v>
       </c>
       <c r="F119" t="n">
-        <v>493269.97</v>
+        <v>493975.97</v>
       </c>
       <c r="G119" t="n">
-        <v>2868789.07</v>
+        <v>2857821.21</v>
       </c>
       <c r="H119" t="n">
         <v>210574.09</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>3952286.44</v>
+        <v>3942024.58</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -5693,16 +5693,16 @@
         <v>103953646.93</v>
       </c>
       <c r="D167" t="n">
-        <v>218039136.24</v>
+        <v>218039736.08</v>
       </c>
       <c r="E167" t="n">
-        <v>11384076.06</v>
+        <v>11380584.06</v>
       </c>
       <c r="F167" t="n">
-        <v>21698628.43</v>
+        <v>21699334.43</v>
       </c>
       <c r="G167" t="n">
-        <v>51547095.9</v>
+        <v>51536128.04</v>
       </c>
       <c r="H167" t="n">
         <v>3994523.41</v>
@@ -5711,7 +5711,7 @@
         <v>229261982.53</v>
       </c>
       <c r="J167" t="n">
-        <v>639879089.5</v>
+        <v>639865935.48</v>
       </c>
     </row>
   </sheetData>

--- a/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_all.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_all.xlsx
@@ -143,9 +143,6 @@
     <t>HRA Pharma</t>
   </si>
   <si>
-    <t>Hoffmann-La Roche</t>
-  </si>
-  <si>
     <t>Janssen Pharmaceutica</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Recordati</t>
+  </si>
+  <si>
+    <t>Roche Pharma AG</t>
   </si>
   <si>
     <t>Sandoz Pharmaceuticals AG</t>
@@ -3204,28 +3204,28 @@
         <v>11</v>
       </c>
       <c r="C86" t="n">
-        <v>4738784.49</v>
+        <v>8161222</v>
       </c>
       <c r="D86" t="n">
-        <v>11321524.72</v>
+        <v>4039752</v>
       </c>
       <c r="E86" t="n">
-        <v>1621430.27</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>344887.81</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1892204.61</v>
+        <v>464688</v>
       </c>
       <c r="H86" t="n">
-        <v>81752.28</v>
+        <v>29</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>20000584.18</v>
+        <v>12665691</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>290154.89</v>
+        <v>111683</v>
       </c>
       <c r="F87" t="n">
-        <v>574379.21</v>
+        <v>266766</v>
       </c>
       <c r="G87" t="n">
-        <v>2875246.94</v>
+        <v>573593</v>
       </c>
       <c r="H87" t="n">
-        <v>243728.06</v>
+        <v>62689</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>3983509.1</v>
+        <v>1014731</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3282,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>36736600.07</v>
+        <v>4986126</v>
       </c>
       <c r="J88" t="n">
-        <v>36736600.07</v>
+        <v>4986126</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3296,28 +3296,28 @@
         <v>11</v>
       </c>
       <c r="C89" t="n">
-        <v>8161222</v>
+        <v>31164.24</v>
       </c>
       <c r="D89" t="n">
-        <v>4039752</v>
+        <v>1116787.93</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>3330</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>59400</v>
       </c>
       <c r="G89" t="n">
-        <v>464688</v>
+        <v>3800</v>
       </c>
       <c r="H89" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>12665691</v>
+        <v>1214482.17</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3332,22 +3332,22 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>111683</v>
+        <v>4103.3</v>
       </c>
       <c r="F90" t="n">
-        <v>266766</v>
+        <v>9565.6</v>
       </c>
       <c r="G90" t="n">
-        <v>573593</v>
+        <v>130353.6</v>
       </c>
       <c r="H90" t="n">
-        <v>62689</v>
+        <v>6952.04</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1014731</v>
+        <v>150974.54</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3374,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>4986126</v>
+        <v>5000</v>
       </c>
       <c r="J91" t="n">
-        <v>4986126</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3388,28 +3388,28 @@
         <v>11</v>
       </c>
       <c r="C92" t="n">
-        <v>31164.24</v>
+        <v>10544</v>
       </c>
       <c r="D92" t="n">
-        <v>1116787.93</v>
+        <v>1429288</v>
       </c>
       <c r="E92" t="n">
-        <v>3330</v>
+        <v>2662</v>
       </c>
       <c r="F92" t="n">
-        <v>59400</v>
+        <v>5682</v>
       </c>
       <c r="G92" t="n">
-        <v>3800</v>
+        <v>49929</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1214482.17</v>
+        <v>1499545</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3424,22 +3424,22 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>4103.3</v>
+        <v>95832.35000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>9565.6</v>
+        <v>242841.85</v>
       </c>
       <c r="G93" t="n">
-        <v>130353.6</v>
+        <v>504111</v>
       </c>
       <c r="H93" t="n">
-        <v>6952.04</v>
+        <v>16049</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>150974.54</v>
+        <v>858834.2</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>5000</v>
+        <v>118589.75</v>
       </c>
       <c r="J94" t="n">
-        <v>5000</v>
+        <v>118589.75</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3480,28 +3480,28 @@
         <v>11</v>
       </c>
       <c r="C95" t="n">
-        <v>10544</v>
+        <v>5237338.1</v>
       </c>
       <c r="D95" t="n">
-        <v>1429288</v>
+        <v>11686707.7</v>
       </c>
       <c r="E95" t="n">
-        <v>2662</v>
+        <v>155988.46</v>
       </c>
       <c r="F95" t="n">
-        <v>5682</v>
+        <v>636553.7</v>
       </c>
       <c r="G95" t="n">
-        <v>49929</v>
+        <v>1417598.66</v>
       </c>
       <c r="H95" t="n">
-        <v>1440</v>
+        <v>21468.74</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1499545</v>
+        <v>19155655.36</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3513,25 +3513,25 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>94763.87</v>
       </c>
       <c r="E96" t="n">
-        <v>95832.35000000001</v>
+        <v>77300.42999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>242841.85</v>
+        <v>431476.82</v>
       </c>
       <c r="G96" t="n">
-        <v>504111</v>
+        <v>1699153.75</v>
       </c>
       <c r="H96" t="n">
-        <v>16049</v>
+        <v>122380.11</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>858834.2</v>
+        <v>2425074.98</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3558,10 +3558,10 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>118589.75</v>
+        <v>9510252.029999999</v>
       </c>
       <c r="J97" t="n">
-        <v>118589.75</v>
+        <v>9510252.029999999</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3572,28 +3572,28 @@
         <v>11</v>
       </c>
       <c r="C98" t="n">
-        <v>5237338.1</v>
+        <v>26316</v>
       </c>
       <c r="D98" t="n">
-        <v>11686707.7</v>
+        <v>540787</v>
       </c>
       <c r="E98" t="n">
-        <v>155988.46</v>
+        <v>2004.35</v>
       </c>
       <c r="F98" t="n">
-        <v>636553.7</v>
+        <v>3742.4</v>
       </c>
       <c r="G98" t="n">
-        <v>1417598.66</v>
+        <v>7250</v>
       </c>
       <c r="H98" t="n">
-        <v>21468.74</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>19155655.36</v>
+        <v>580099.75</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3605,37 +3605,39 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>94763.87</v>
+        <v>2944</v>
       </c>
       <c r="E99" t="n">
-        <v>77300.42999999999</v>
+        <v>6044.7</v>
       </c>
       <c r="F99" t="n">
-        <v>431476.82</v>
+        <v>10904.44</v>
       </c>
       <c r="G99" t="n">
-        <v>1699153.75</v>
+        <v>31891</v>
       </c>
       <c r="H99" t="n">
-        <v>122380.11</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2425074.98</v>
+        <v>51784.14</v>
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="1" t="n"/>
+      <c r="A100" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B100" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>10348</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>2620898</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -3644,116 +3646,114 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>59365</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2640</v>
       </c>
       <c r="I100" t="n">
-        <v>9510252.029999999</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>9510252.029999999</v>
+        <v>2693251</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A101" s="1" t="n"/>
       <c r="B101" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C101" t="n">
-        <v>26316</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>540787</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>2004.35</v>
+        <v>33978</v>
       </c>
       <c r="F101" t="n">
-        <v>3742.4</v>
+        <v>17049</v>
       </c>
       <c r="G101" t="n">
-        <v>7250</v>
+        <v>488769</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>4149</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>580099.75</v>
+        <v>543945</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="1" t="n"/>
+      <c r="A102" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="n">
+        <v>16885572.63</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4276860.69</v>
+      </c>
+      <c r="E102" t="n">
+        <v>71489.46000000001</v>
+      </c>
+      <c r="F102" t="n">
+        <v>214113.03</v>
+      </c>
+      <c r="G102" t="n">
+        <v>198758.26</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3617.18</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>21650411.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>2944</v>
-      </c>
-      <c r="E102" t="n">
-        <v>6044.7</v>
-      </c>
-      <c r="F102" t="n">
-        <v>10904.44</v>
-      </c>
-      <c r="G102" t="n">
-        <v>31891</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>51784.14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C103" t="n">
-        <v>10348</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>2620898</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>135420.38</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>423605.42</v>
       </c>
       <c r="G103" t="n">
-        <v>59365</v>
+        <v>862161.3100000001</v>
       </c>
       <c r="H103" t="n">
-        <v>2640</v>
+        <v>58574.59</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2693251</v>
+        <v>1479761.7</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="n"/>
       <c r="B104" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3762,22 +3762,22 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>33978</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>17049</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>488769</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>4149</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>3286259.92</v>
       </c>
       <c r="J104" t="n">
-        <v>543945</v>
+        <v>3286259.92</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3788,28 +3788,28 @@
         <v>11</v>
       </c>
       <c r="C105" t="n">
-        <v>16885572.63</v>
+        <v>2591945.25</v>
       </c>
       <c r="D105" t="n">
-        <v>4276860.69</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>71489.46000000001</v>
+        <v>6132</v>
       </c>
       <c r="F105" t="n">
-        <v>214113.03</v>
+        <v>10311</v>
       </c>
       <c r="G105" t="n">
-        <v>198758.26</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>3617.18</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>21650411.25</v>
+        <v>2608388.25</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3824,22 +3824,22 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>135420.38</v>
+        <v>143961</v>
       </c>
       <c r="F106" t="n">
-        <v>423605.42</v>
+        <v>304578.4</v>
       </c>
       <c r="G106" t="n">
-        <v>862161.3100000001</v>
+        <v>123255.2</v>
       </c>
       <c r="H106" t="n">
-        <v>58574.59</v>
+        <v>55283</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1479761.7</v>
+        <v>627077.6</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>3286259.92</v>
+        <v>415347</v>
       </c>
       <c r="J107" t="n">
-        <v>3286259.92</v>
+        <v>415347</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3880,19 +3880,19 @@
         <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>2591945.25</v>
+        <v>54900</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1074910</v>
       </c>
       <c r="E108" t="n">
-        <v>6132</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>10311</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>36350</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2608388.25</v>
+        <v>1166160</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3916,34 +3916,36 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>143961</v>
+        <v>27977.8</v>
       </c>
       <c r="F109" t="n">
-        <v>304578.4</v>
+        <v>49569</v>
       </c>
       <c r="G109" t="n">
-        <v>123255.2</v>
+        <v>29732</v>
       </c>
       <c r="H109" t="n">
-        <v>55283</v>
+        <v>27900</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>627077.6</v>
+        <v>135178.8</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="1" t="n"/>
+      <c r="A110" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B110" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>45400</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -3958,24 +3960,22 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>415347</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>415347</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A111" s="1" t="n"/>
       <c r="B111" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C111" t="n">
-        <v>54900</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>1074910</v>
+        <v>3300</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>36350</v>
+        <v>900</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -3993,81 +3993,81 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1166160</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="1" t="n"/>
+      <c r="A112" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D112" t="n">
+        <v>127895.72</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>132895.72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>27977.8</v>
-      </c>
-      <c r="F112" t="n">
-        <v>49569</v>
-      </c>
-      <c r="G112" t="n">
-        <v>29732</v>
-      </c>
-      <c r="H112" t="n">
-        <v>27900</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>135178.8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>45400</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>2686.15</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>4535.78</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>19045</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>60.54</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>45400</v>
+        <v>26327.47</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1" t="n"/>
       <c r="B114" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -4076,16 +4076,16 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>18622.54</v>
       </c>
       <c r="J114" t="n">
-        <v>4200</v>
+        <v>18622.54</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4096,28 +4096,28 @@
         <v>11</v>
       </c>
       <c r="C115" t="n">
-        <v>5000</v>
+        <v>11192941.91</v>
       </c>
       <c r="D115" t="n">
-        <v>127895.72</v>
+        <v>22398112.36</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>684598.28</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>323597.95</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>5241399.79</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>122719.96</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>132895.72</v>
+        <v>39963370.25</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4132,22 +4132,22 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>2686.15</v>
+        <v>379653.31</v>
       </c>
       <c r="F116" t="n">
-        <v>4535.78</v>
+        <v>493975.97</v>
       </c>
       <c r="G116" t="n">
-        <v>19045</v>
+        <v>2857821.21</v>
       </c>
       <c r="H116" t="n">
-        <v>60.54</v>
+        <v>210574.09</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>26327.47</v>
+        <v>3942024.58</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4174,10 +4174,10 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>18622.54</v>
+        <v>47252407.53</v>
       </c>
       <c r="J117" t="n">
-        <v>18622.54</v>
+        <v>47252407.53</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4188,28 +4188,28 @@
         <v>11</v>
       </c>
       <c r="C118" t="n">
-        <v>11192941.91</v>
+        <v>4357868</v>
       </c>
       <c r="D118" t="n">
-        <v>22398112.36</v>
+        <v>1037189</v>
       </c>
       <c r="E118" t="n">
-        <v>684598.28</v>
+        <v>84779</v>
       </c>
       <c r="F118" t="n">
-        <v>323597.95</v>
+        <v>144156</v>
       </c>
       <c r="G118" t="n">
-        <v>5241399.79</v>
+        <v>180800</v>
       </c>
       <c r="H118" t="n">
-        <v>122719.96</v>
+        <v>8411</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>39963370.25</v>
+        <v>5813203</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4218,28 +4218,28 @@
         <v>13</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>35550</v>
       </c>
       <c r="E119" t="n">
-        <v>379653.31</v>
+        <v>310043</v>
       </c>
       <c r="F119" t="n">
-        <v>493975.97</v>
+        <v>1008266.24</v>
       </c>
       <c r="G119" t="n">
-        <v>2857821.21</v>
+        <v>691353.26</v>
       </c>
       <c r="H119" t="n">
-        <v>210574.09</v>
+        <v>78709.2</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>3942024.58</v>
+        <v>2131921.7</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4266,10 +4266,10 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>47252407.53</v>
+        <v>1365154</v>
       </c>
       <c r="J120" t="n">
-        <v>47252407.53</v>
+        <v>1365154</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4280,28 +4280,28 @@
         <v>11</v>
       </c>
       <c r="C121" t="n">
-        <v>4357868</v>
+        <v>140786</v>
       </c>
       <c r="D121" t="n">
-        <v>1037189</v>
+        <v>442688</v>
       </c>
       <c r="E121" t="n">
-        <v>84779</v>
+        <v>5018.98</v>
       </c>
       <c r="F121" t="n">
-        <v>144156</v>
+        <v>7966.7</v>
       </c>
       <c r="G121" t="n">
-        <v>180800</v>
+        <v>1700</v>
       </c>
       <c r="H121" t="n">
-        <v>8411</v>
+        <v>141586</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>5813203</v>
+        <v>739745.6800000001</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4310,28 +4310,28 @@
         <v>13</v>
       </c>
       <c r="C122" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>35550</v>
+        <v>10174.64</v>
       </c>
       <c r="E122" t="n">
-        <v>310043</v>
+        <v>64921.23</v>
       </c>
       <c r="F122" t="n">
-        <v>1008266.24</v>
+        <v>91008.73</v>
       </c>
       <c r="G122" t="n">
-        <v>691353.26</v>
+        <v>44306.1</v>
       </c>
       <c r="H122" t="n">
-        <v>78709.2</v>
+        <v>48719.14</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>2131921.7</v>
+        <v>259129.84</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4358,10 +4358,10 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1365154</v>
+        <v>19.92</v>
       </c>
       <c r="J123" t="n">
-        <v>1365154</v>
+        <v>19.92</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4372,28 +4372,28 @@
         <v>11</v>
       </c>
       <c r="C124" t="n">
-        <v>140786</v>
+        <v>81985.10000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>442688</v>
+        <v>469173.44</v>
       </c>
       <c r="E124" t="n">
-        <v>5018.98</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>7966.7</v>
+        <v>1806.75</v>
       </c>
       <c r="G124" t="n">
-        <v>1700</v>
+        <v>73988.37</v>
       </c>
       <c r="H124" t="n">
-        <v>141586</v>
+        <v>904.15</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>739745.6800000001</v>
+        <v>627857.8100000001</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4405,25 +4405,25 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>10174.64</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>64921.23</v>
+        <v>46015.23</v>
       </c>
       <c r="F125" t="n">
-        <v>91008.73</v>
+        <v>86183.3</v>
       </c>
       <c r="G125" t="n">
-        <v>44306.1</v>
+        <v>127865.8</v>
       </c>
       <c r="H125" t="n">
-        <v>48719.14</v>
+        <v>9384.040000000001</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>259129.84</v>
+        <v>269448.37</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4450,10 +4450,10 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>19.92</v>
+        <v>90076.87</v>
       </c>
       <c r="J126" t="n">
-        <v>19.92</v>
+        <v>90076.87</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4464,28 +4464,28 @@
         <v>11</v>
       </c>
       <c r="C127" t="n">
-        <v>81985.10000000001</v>
+        <v>6090395</v>
       </c>
       <c r="D127" t="n">
-        <v>469173.44</v>
+        <v>17984714</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>47130</v>
       </c>
       <c r="F127" t="n">
-        <v>1806.75</v>
+        <v>183365</v>
       </c>
       <c r="G127" t="n">
-        <v>73988.37</v>
+        <v>1242363</v>
       </c>
       <c r="H127" t="n">
-        <v>904.15</v>
+        <v>23603</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>627857.8100000001</v>
+        <v>25571570</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -4497,25 +4497,25 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1476</v>
       </c>
       <c r="E128" t="n">
-        <v>46015.23</v>
+        <v>260133</v>
       </c>
       <c r="F128" t="n">
-        <v>86183.3</v>
+        <v>838515</v>
       </c>
       <c r="G128" t="n">
-        <v>127865.8</v>
+        <v>1158133</v>
       </c>
       <c r="H128" t="n">
-        <v>9384.040000000001</v>
+        <v>60207</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>269448.37</v>
+        <v>2318464</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4542,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>90076.87</v>
+        <v>12597204</v>
       </c>
       <c r="J129" t="n">
-        <v>90076.87</v>
+        <v>12597204</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -4556,28 +4556,28 @@
         <v>11</v>
       </c>
       <c r="C130" t="n">
-        <v>6090395</v>
+        <v>10502</v>
       </c>
       <c r="D130" t="n">
-        <v>17984714</v>
+        <v>660039.4</v>
       </c>
       <c r="E130" t="n">
-        <v>47130</v>
+        <v>100978.63</v>
       </c>
       <c r="F130" t="n">
-        <v>183365</v>
+        <v>23066.47</v>
       </c>
       <c r="G130" t="n">
-        <v>1242363</v>
+        <v>7700</v>
       </c>
       <c r="H130" t="n">
-        <v>23603</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>25571570</v>
+        <v>802286.5</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -4589,25 +4589,25 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>1476</v>
+        <v>4700</v>
       </c>
       <c r="E131" t="n">
-        <v>260133</v>
+        <v>53225.05</v>
       </c>
       <c r="F131" t="n">
-        <v>838515</v>
+        <v>113863.14</v>
       </c>
       <c r="G131" t="n">
-        <v>1158133</v>
+        <v>76655.44</v>
       </c>
       <c r="H131" t="n">
-        <v>60207</v>
+        <v>3437.87</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2318464</v>
+        <v>251881.5</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -4634,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>12597204</v>
+        <v>1500</v>
       </c>
       <c r="J132" t="n">
-        <v>12597204</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -4648,19 +4648,19 @@
         <v>11</v>
       </c>
       <c r="C133" t="n">
-        <v>10502</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>660039.4</v>
+        <v>17700</v>
       </c>
       <c r="E133" t="n">
-        <v>100978.63</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>23066.47</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>7700</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>802286.5</v>
+        <v>17700</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -4681,93 +4681,93 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>53225.05</v>
+        <v>2796.79</v>
       </c>
       <c r="F134" t="n">
-        <v>113863.14</v>
+        <v>7528.79</v>
       </c>
       <c r="G134" t="n">
-        <v>76655.44</v>
+        <v>34700</v>
       </c>
       <c r="H134" t="n">
-        <v>3437.87</v>
+        <v>1118.3</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>251881.5</v>
+        <v>46143.88</v>
       </c>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="1" t="n"/>
+      <c r="A135" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B135" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>4738784.49</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>11321524.72</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1621430.27</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>344887.81</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1892204.61</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>81752.28</v>
       </c>
       <c r="I135" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1500</v>
+        <v>20000584.18</v>
       </c>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A136" s="1" t="n"/>
       <c r="B136" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>17700</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>290154.89</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>574379.21</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>2875246.94</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>243728.06</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>17700</v>
+        <v>3983509.1</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="1" t="n"/>
       <c r="B137" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4776,22 +4776,22 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>2796.79</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>7528.79</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>34700</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>1118.3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>36736600.07</v>
       </c>
       <c r="J137" t="n">
-        <v>46143.88</v>
+        <v>36736600.07</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -5749,21 +5749,21 @@
     <mergeCell ref="A89:A91"/>
     <mergeCell ref="A92:A94"/>
     <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A104"/>
     <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A114"/>
     <mergeCell ref="A115:A117"/>
     <mergeCell ref="A118:A120"/>
     <mergeCell ref="A121:A123"/>
     <mergeCell ref="A124:A126"/>
     <mergeCell ref="A127:A129"/>
     <mergeCell ref="A130:A132"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A137"/>
     <mergeCell ref="A138:A140"/>
     <mergeCell ref="A141:A143"/>
     <mergeCell ref="A144:A146"/>

--- a/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_all.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_all.xlsx
@@ -2238,7 +2238,7 @@
         <v>145869.71</v>
       </c>
       <c r="G54" t="n">
-        <v>174135.31</v>
+        <v>174135.32</v>
       </c>
       <c r="H54" t="n">
         <v>62756.17</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>86220.5</v>
+        <v>39428.15</v>
       </c>
       <c r="F74" t="n">
-        <v>192404.35</v>
+        <v>89513.64999999999</v>
       </c>
       <c r="G74" t="n">
         <v>361637.78</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>655747.04</v>
+        <v>506063.99</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -5916,10 +5916,10 @@
         <v>290105804.43</v>
       </c>
       <c r="E174" t="n">
-        <v>13904725.41</v>
+        <v>13857933.06</v>
       </c>
       <c r="F174" t="n">
-        <v>26833920.34</v>
+        <v>26731029.64</v>
       </c>
       <c r="G174" t="n">
         <v>62926003.93</v>
@@ -5931,7 +5931,7 @@
         <v>298135692.86</v>
       </c>
       <c r="J174" t="n">
-        <v>825618197.23</v>
+        <v>825468514.1799999</v>
       </c>
     </row>
   </sheetData>
